--- a/NSI_Project_plan_.xlsx
+++ b/NSI_Project_plan_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taif\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taif\Desktop\Neural-Symbolic-Integeration-Uniform-Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B767E-6E94-4D83-AC52-6F45BC5A9125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C448F1-8CCA-43E2-9DD7-CA13FB1BCE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1488F4C-321F-47B8-A514-B4E63673806C}"/>
   </bookViews>
@@ -239,12 +239,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -395,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -420,6 +426,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -739,7 +750,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,43 +808,43 @@
       <c r="G2" s="2"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="22">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="22">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
